--- a/data/new.xlsx
+++ b/data/new.xlsx
@@ -5746,13 +5746,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="V17" sqref="V17:W34"/>
+      <selection pane="bottomLeft" activeCell="W10" sqref="V2:W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55833333333333" defaultRowHeight="14.25"/>
@@ -6371,7 +6371,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="7" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A7" s="19" t="s">
         <v>63</v>
       </c>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="AF7" s="20"/>
     </row>
-    <row r="8" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="8" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A8" s="19" t="s">
         <v>63</v>
       </c>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="AF8" s="20"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="9" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A9" s="19" t="s">
         <v>72</v>
       </c>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="AF10" s="20"/>
     </row>
-    <row r="11" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="11" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A11" s="19" t="s">
         <v>83</v>
       </c>
@@ -6851,7 +6851,7 @@
       </c>
       <c r="AF11" s="20"/>
     </row>
-    <row r="12" s="7" customFormat="1" ht="12.75" spans="1:32">
+    <row r="12" s="7" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A12" s="27" t="s">
         <v>92</v>
       </c>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="AF12" s="28"/>
     </row>
-    <row r="13" s="7" customFormat="1" ht="12.75" spans="1:32">
+    <row r="13" s="7" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A13" s="27" t="s">
         <v>101</v>
       </c>
@@ -7043,7 +7043,7 @@
       </c>
       <c r="AF13" s="28"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="24" spans="1:32">
+    <row r="14" s="6" customFormat="1" ht="24" hidden="1" spans="1:32">
       <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="AF14" s="20"/>
     </row>
-    <row r="15" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="15" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="AF15" s="20"/>
     </row>
-    <row r="16" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="16" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A16" s="19" t="s">
         <v>123</v>
       </c>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="AF16" s="20"/>
     </row>
-    <row r="17" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="17" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A17" s="19" t="s">
         <v>128</v>
       </c>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="AF17" s="20"/>
     </row>
-    <row r="18" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="18" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A18" s="19" t="s">
         <v>134</v>
       </c>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="AF18" s="20"/>
     </row>
-    <row r="19" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="19" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A19" s="19" t="s">
         <v>142</v>
       </c>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="AF19" s="20"/>
     </row>
-    <row r="20" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="20" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A20" s="19" t="s">
         <v>147</v>
       </c>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="AF20" s="20"/>
     </row>
-    <row r="21" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="21" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A21" s="19" t="s">
         <v>156</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="AF21" s="20"/>
     </row>
-    <row r="22" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="22" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A22" s="19" t="s">
         <v>160</v>
       </c>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="AF22" s="20"/>
     </row>
-    <row r="23" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="23" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A23" s="19" t="s">
         <v>167</v>
       </c>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="AF23" s="20"/>
     </row>
-    <row r="24" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="24" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A24" s="19" t="s">
         <v>174</v>
       </c>
@@ -8095,7 +8095,7 @@
       </c>
       <c r="AF24" s="20"/>
     </row>
-    <row r="25" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="25" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A25" s="19" t="s">
         <v>180</v>
       </c>
@@ -8191,7 +8191,7 @@
       </c>
       <c r="AF25" s="20"/>
     </row>
-    <row r="26" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="26" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A26" s="19" t="s">
         <v>185</v>
       </c>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="AF26" s="20"/>
     </row>
-    <row r="27" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="27" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A27" s="19" t="s">
         <v>188</v>
       </c>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="AF27" s="20"/>
     </row>
-    <row r="28" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="28" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A28" s="19" t="s">
         <v>194</v>
       </c>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="AF28" s="20"/>
     </row>
-    <row r="29" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="29" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A29" s="19" t="s">
         <v>197</v>
       </c>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="AF29" s="20"/>
     </row>
-    <row r="30" s="7" customFormat="1" ht="12.75" spans="1:32">
+    <row r="30" s="7" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A30" s="27" t="s">
         <v>203</v>
       </c>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="AF30" s="28"/>
     </row>
-    <row r="31" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="31" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A31" s="19" t="s">
         <v>207</v>
       </c>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="AF31" s="20"/>
     </row>
-    <row r="32" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="32" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A32" s="19" t="s">
         <v>207</v>
       </c>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="AF32" s="20"/>
     </row>
-    <row r="33" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="33" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A33" s="19" t="s">
         <v>207</v>
       </c>
@@ -8951,7 +8951,7 @@
       </c>
       <c r="AF33" s="20"/>
     </row>
-    <row r="34" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="34" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A34" s="19" t="s">
         <v>207</v>
       </c>
@@ -9047,7 +9047,7 @@
       </c>
       <c r="AF34" s="20"/>
     </row>
-    <row r="35" s="8" customFormat="1" ht="25.5" spans="1:32">
+    <row r="35" s="8" customFormat="1" ht="25.5" hidden="1" spans="1:32">
       <c r="A35" s="31" t="s">
         <v>215</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" s="8" customFormat="1" spans="1:32">
+    <row r="36" s="8" customFormat="1" hidden="1" spans="1:32">
       <c r="A36" s="31" t="s">
         <v>224</v>
       </c>
@@ -9241,7 +9241,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" ht="12.75" spans="1:32">
+    <row r="37" s="7" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A37" s="27" t="s">
         <v>231</v>
       </c>
@@ -9337,7 +9337,7 @@
       </c>
       <c r="AF37" s="28"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="12.75" spans="1:32">
+    <row r="38" s="9" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A38" s="36" t="s">
         <v>236</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="39" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A39" s="19" t="s">
         <v>245</v>
       </c>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="AF39" s="20"/>
     </row>
-    <row r="40" s="6" customFormat="1" ht="37.5" spans="1:32">
+    <row r="40" s="6" customFormat="1" ht="37.5" hidden="1" spans="1:32">
       <c r="A40" s="19" t="s">
         <v>254</v>
       </c>
@@ -9625,7 +9625,7 @@
       </c>
       <c r="AF40" s="20"/>
     </row>
-    <row r="41" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="41" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A41" s="19" t="s">
         <v>260</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="42" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A42" s="19" t="s">
         <v>266</v>
       </c>
@@ -9817,7 +9817,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="43" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A43" s="19" t="s">
         <v>272</v>
       </c>
@@ -9913,7 +9913,7 @@
       </c>
       <c r="AF43" s="20"/>
     </row>
-    <row r="44" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="44" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A44" s="19">
         <v>38</v>
       </c>
@@ -10009,7 +10009,7 @@
       </c>
       <c r="AF44" s="20"/>
     </row>
-    <row r="45" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="45" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A45" s="19" t="s">
         <v>279</v>
       </c>
@@ -10103,7 +10103,7 @@
       </c>
       <c r="AF45" s="20"/>
     </row>
-    <row r="46" s="6" customFormat="1" ht="12.75" spans="1:32">
+    <row r="46" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
       <c r="A46" s="19">
         <v>40</v>
       </c>
@@ -10199,6 +10199,11 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF46" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="组合-过程拦截"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/new.xlsx
+++ b/data/new.xlsx
@@ -368,13 +368,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>治理后入水口水中磷含量（</t>
     </r>
     <r>
@@ -5746,13 +5739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="W10" sqref="V2:W10"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="$A14:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55833333333333" defaultRowHeight="14.25"/>
@@ -6371,7 +6364,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="7" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A7" s="19" t="s">
         <v>63</v>
       </c>
@@ -6467,7 +6460,7 @@
       </c>
       <c r="AF7" s="20"/>
     </row>
-    <row r="8" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="8" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A8" s="19" t="s">
         <v>63</v>
       </c>
@@ -6563,7 +6556,7 @@
       </c>
       <c r="AF8" s="20"/>
     </row>
-    <row r="9" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="9" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A9" s="19" t="s">
         <v>72</v>
       </c>
@@ -6755,7 +6748,7 @@
       </c>
       <c r="AF10" s="20"/>
     </row>
-    <row r="11" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="11" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A11" s="19" t="s">
         <v>83</v>
       </c>
@@ -6851,7 +6844,7 @@
       </c>
       <c r="AF11" s="20"/>
     </row>
-    <row r="12" s="7" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="12" s="7" customFormat="1" ht="12.75" spans="1:32">
       <c r="A12" s="27" t="s">
         <v>92</v>
       </c>
@@ -6947,7 +6940,7 @@
       </c>
       <c r="AF12" s="28"/>
     </row>
-    <row r="13" s="7" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="13" s="7" customFormat="1" ht="12.75" spans="1:32">
       <c r="A13" s="27" t="s">
         <v>101</v>
       </c>
@@ -7043,7 +7036,7 @@
       </c>
       <c r="AF13" s="28"/>
     </row>
-    <row r="14" s="6" customFormat="1" ht="24" hidden="1" spans="1:32">
+    <row r="14" s="6" customFormat="1" ht="24" spans="1:32">
       <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
@@ -7137,7 +7130,7 @@
       </c>
       <c r="AF14" s="20"/>
     </row>
-    <row r="15" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="15" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A15" s="19">
         <v>11</v>
       </c>
@@ -7233,7 +7226,7 @@
       </c>
       <c r="AF15" s="20"/>
     </row>
-    <row r="16" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="16" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A16" s="19" t="s">
         <v>123</v>
       </c>
@@ -7329,7 +7322,7 @@
       </c>
       <c r="AF16" s="20"/>
     </row>
-    <row r="17" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="17" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A17" s="19" t="s">
         <v>128</v>
       </c>
@@ -7425,7 +7418,7 @@
       </c>
       <c r="AF17" s="20"/>
     </row>
-    <row r="18" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="18" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A18" s="19" t="s">
         <v>134</v>
       </c>
@@ -7521,7 +7514,7 @@
       </c>
       <c r="AF18" s="20"/>
     </row>
-    <row r="19" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="19" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A19" s="19" t="s">
         <v>142</v>
       </c>
@@ -7617,7 +7610,7 @@
       </c>
       <c r="AF19" s="20"/>
     </row>
-    <row r="20" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="20" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A20" s="19" t="s">
         <v>147</v>
       </c>
@@ -7713,7 +7706,7 @@
       </c>
       <c r="AF20" s="20"/>
     </row>
-    <row r="21" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="21" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A21" s="19" t="s">
         <v>156</v>
       </c>
@@ -7809,7 +7802,7 @@
       </c>
       <c r="AF21" s="20"/>
     </row>
-    <row r="22" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="22" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A22" s="19" t="s">
         <v>160</v>
       </c>
@@ -7905,7 +7898,7 @@
       </c>
       <c r="AF22" s="20"/>
     </row>
-    <row r="23" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="23" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A23" s="19" t="s">
         <v>167</v>
       </c>
@@ -8001,7 +7994,7 @@
       </c>
       <c r="AF23" s="20"/>
     </row>
-    <row r="24" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="24" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A24" s="19" t="s">
         <v>174</v>
       </c>
@@ -8095,7 +8088,7 @@
       </c>
       <c r="AF24" s="20"/>
     </row>
-    <row r="25" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="25" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A25" s="19" t="s">
         <v>180</v>
       </c>
@@ -8191,7 +8184,7 @@
       </c>
       <c r="AF25" s="20"/>
     </row>
-    <row r="26" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="26" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A26" s="19" t="s">
         <v>185</v>
       </c>
@@ -8285,7 +8278,7 @@
       </c>
       <c r="AF26" s="20"/>
     </row>
-    <row r="27" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="27" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A27" s="19" t="s">
         <v>188</v>
       </c>
@@ -8379,7 +8372,7 @@
       </c>
       <c r="AF27" s="20"/>
     </row>
-    <row r="28" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="28" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A28" s="19" t="s">
         <v>194</v>
       </c>
@@ -8471,7 +8464,7 @@
       </c>
       <c r="AF28" s="20"/>
     </row>
-    <row r="29" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="29" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A29" s="19" t="s">
         <v>197</v>
       </c>
@@ -8567,7 +8560,7 @@
       </c>
       <c r="AF29" s="20"/>
     </row>
-    <row r="30" s="7" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="30" s="7" customFormat="1" ht="12.75" spans="1:32">
       <c r="A30" s="27" t="s">
         <v>203</v>
       </c>
@@ -8663,7 +8656,7 @@
       </c>
       <c r="AF30" s="28"/>
     </row>
-    <row r="31" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="31" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A31" s="19" t="s">
         <v>207</v>
       </c>
@@ -8759,7 +8752,7 @@
       </c>
       <c r="AF31" s="20"/>
     </row>
-    <row r="32" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="32" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A32" s="19" t="s">
         <v>207</v>
       </c>
@@ -8855,7 +8848,7 @@
       </c>
       <c r="AF32" s="20"/>
     </row>
-    <row r="33" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="33" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A33" s="19" t="s">
         <v>207</v>
       </c>
@@ -8951,7 +8944,7 @@
       </c>
       <c r="AF33" s="20"/>
     </row>
-    <row r="34" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="34" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A34" s="19" t="s">
         <v>207</v>
       </c>
@@ -9047,7 +9040,7 @@
       </c>
       <c r="AF34" s="20"/>
     </row>
-    <row r="35" s="8" customFormat="1" ht="25.5" hidden="1" spans="1:32">
+    <row r="35" s="8" customFormat="1" ht="25.5" spans="1:32">
       <c r="A35" s="31" t="s">
         <v>215</v>
       </c>
@@ -9145,7 +9138,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" s="8" customFormat="1" hidden="1" spans="1:32">
+    <row r="36" s="8" customFormat="1" spans="1:32">
       <c r="A36" s="31" t="s">
         <v>224</v>
       </c>
@@ -9241,7 +9234,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="37" s="7" customFormat="1" ht="12.75" spans="1:32">
       <c r="A37" s="27" t="s">
         <v>231</v>
       </c>
@@ -9337,7 +9330,7 @@
       </c>
       <c r="AF37" s="28"/>
     </row>
-    <row r="38" s="9" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="38" s="9" customFormat="1" ht="12.75" spans="1:32">
       <c r="A38" s="36" t="s">
         <v>236</v>
       </c>
@@ -9435,7 +9428,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="39" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A39" s="19" t="s">
         <v>245</v>
       </c>
@@ -9531,7 +9524,7 @@
       </c>
       <c r="AF39" s="20"/>
     </row>
-    <row r="40" s="6" customFormat="1" ht="37.5" hidden="1" spans="1:32">
+    <row r="40" s="6" customFormat="1" ht="37.5" spans="1:32">
       <c r="A40" s="19" t="s">
         <v>254</v>
       </c>
@@ -9625,7 +9618,7 @@
       </c>
       <c r="AF40" s="20"/>
     </row>
-    <row r="41" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="41" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A41" s="19" t="s">
         <v>260</v>
       </c>
@@ -9721,7 +9714,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="42" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A42" s="19" t="s">
         <v>266</v>
       </c>
@@ -9817,7 +9810,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="43" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="43" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A43" s="19" t="s">
         <v>272</v>
       </c>
@@ -9913,7 +9906,7 @@
       </c>
       <c r="AF43" s="20"/>
     </row>
-    <row r="44" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="44" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A44" s="19">
         <v>38</v>
       </c>
@@ -10009,7 +10002,7 @@
       </c>
       <c r="AF44" s="20"/>
     </row>
-    <row r="45" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="45" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A45" s="19" t="s">
         <v>279</v>
       </c>
@@ -10103,7 +10096,7 @@
       </c>
       <c r="AF45" s="20"/>
     </row>
-    <row r="46" s="6" customFormat="1" ht="12.75" hidden="1" spans="1:32">
+    <row r="46" s="6" customFormat="1" ht="12.75" spans="1:32">
       <c r="A46" s="19">
         <v>40</v>
       </c>
@@ -10199,11 +10192,6 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AF46" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="10">
-      <filters>
-        <filter val="组合-过程拦截"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/new.xlsx
+++ b/data/new.xlsx
@@ -368,30 +368,25 @@
   </si>
   <si>
     <r>
-      <t>治理后入水口水中磷含量（</t>
-    </r>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>mg/L</t>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>治理后入水口水中磷含量（</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mg/L</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -400,6 +395,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>入水口水中氮含量降低程度（</t>
     </r>
     <r>
@@ -5742,10 +5742,10 @@
   <sheetPr/>
   <dimension ref="A1:AF46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="$A14:$XFD21"/>
+      <selection pane="bottomLeft" activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55833333333333" defaultRowHeight="14.25"/>
